--- a/Ex1.xlsx
+++ b/Ex1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AndroidStudioProjectsKot\GramEsercizi\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B885120-0897-4651-9406-B2E375423A42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15990"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -226,8 +232,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,7 +329,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -355,9 +361,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -389,6 +413,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -564,14 +606,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:O44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
@@ -590,12 +632,12 @@
     <col min="16" max="19" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -642,7 +684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -689,7 +731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -736,7 +778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -783,7 +825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -830,7 +872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -877,7 +919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -924,7 +966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -971,7 +1013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1018,7 +1060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1065,7 +1107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1112,7 +1154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -1159,7 +1201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1206,7 +1248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1253,7 +1295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1300,7 +1342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -1347,7 +1389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -1394,7 +1436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -1441,7 +1483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -1488,7 +1530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -1535,7 +1577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -1582,7 +1624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -1629,7 +1671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -1676,7 +1718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -1723,7 +1765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -1770,7 +1812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -1817,7 +1859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -1864,7 +1906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -1911,7 +1953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -1958,7 +2000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -2005,7 +2047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
@@ -2052,7 +2094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -2099,7 +2141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -2146,7 +2188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -2193,7 +2235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -2240,7 +2282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -2287,7 +2329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
@@ -2334,7 +2376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
@@ -2381,7 +2423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
@@ -2428,7 +2470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
@@ -2463,7 +2505,7 @@
         <v>3</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>3</v>
@@ -2475,7 +2517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
@@ -2510,7 +2552,7 @@
         <v>3</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>3</v>
@@ -2522,7 +2564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -2557,7 +2599,7 @@
         <v>3</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>3</v>
@@ -2569,7 +2611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
@@ -2604,7 +2646,7 @@
         <v>3</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>3</v>
@@ -2616,7 +2658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -2663,7 +2705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
@@ -2710,7 +2752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
@@ -2757,7 +2799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
@@ -2804,7 +2846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
@@ -2851,7 +2893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
@@ -2898,7 +2940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
@@ -2945,7 +2987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
@@ -2992,22 +3034,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
@@ -3022,24 +3064,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
